--- a/585896156.xlsx
+++ b/585896156.xlsx
@@ -55,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +445,16 @@
           <t>Показатель</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Доп инфо</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +467,8 @@
           <t>Весь период</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,6 +479,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -476,6 +491,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -486,6 +503,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -496,6 +515,8 @@
       <c r="B6" t="n">
         <v>100</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -506,6 +527,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,6 +539,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -526,6 +551,8 @@
       <c r="B9" t="n">
         <v>100</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -536,6 +563,8 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -546,23 +575,27 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Среднее время нахождение в канале ОТПИСАШИХСЯ за отчетный период</t>
+          <t>Среднее время нахождения в канале ОТПИСАШИХСЯ за отчетный период</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.0 ч.</t>
-        </is>
-      </c>
+          <t>- ч.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Среднее время нахождение в канале ОТПИСАШИХСЯ за отчетный период больше 1 дня</t>
+          <t>Среднее время нахождения в канале ОТПИСАШИХСЯ за отчетный период больше 1 дня</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -570,6 +603,8 @@
           <t>- ч.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -579,8 +614,104 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0 дн, 0 ч, 0 м.)</t>
-        </is>
+          <t>-1 дн, 23 ч, 59 м.)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Дата вступления</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ссылка-инвайт</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TestJ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TesterJul</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Дата отписки</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Время нахождения в канале</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TestJ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TesterJul</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>-2.9668125e-05</v>
       </c>
     </row>
   </sheetData>

--- a/585896156.xlsx
+++ b/585896156.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>98.41 ч.</t>
+          <t>144.37 ч.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4 дн, 2 ч, 24 м. ч.</t>
+          <t>6 дн, 0 ч, 21 м. ч.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5 дн, 7 ч, 58 м.)</t>
+          <t>5 дн, 10 ч, 36 м.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -701,103 +701,121 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Екатерина Коноплянникова</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EKonoplyannikova</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>TestJ</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>TesterJul</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>06.09.2023</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Дата отписки</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Время нахождения в канале</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alla</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.09.2023</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>3</v>
+          <t>Дата отписки</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Время нахождения в канале</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Olga Menshinina</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>olgamenshinina</t>
-        </is>
-      </c>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11.09.2023</t>
+          <t>06.09.2023</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>5.970833333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Olga Menshinina</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>olgamenshinina</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>5.970833333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Алексей</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>AlexxxNik82</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>09.09.2023</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>3.329861111111111</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>9.074984781504631</v>
       </c>
     </row>
   </sheetData>

--- a/585896156.xlsx
+++ b/585896156.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Весь период</t>
+          <t>11.09.2023 - 16.09.2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>144.37 ч.</t>
+          <t>7.5 ч.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6 дн, 0 ч, 21 м. ч.</t>
+          <t>7 дн, 12 ч, 32 м. ч.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5 дн, 10 ч, 36 м.)</t>
+          <t>0 дн, 11 ч, 49 м.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -651,170 +651,86 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alla</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>Екатерина Коноплянникова</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EKonoplyannikova</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>03.09.2023</t>
+          <t>15.09.2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Olga Menshinina</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>olgamenshinina</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>05.09.2023</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Имя</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AlexxxNik82</t>
+          <t>Username</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.09.2023</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Дата отписки</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Время нахождения в канале</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Екатерина Коноплянникова</t>
+          <t>Olga Menshinina</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EKonoplyannikova</t>
+          <t>olgamenshinina</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15.09.2023</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>5.970833333333333</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TestJ</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TesterJul</t>
+          <t>AlexxxNik82</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.09.2023</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Дата отписки</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Время нахождения в канале</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Alla</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>06.09.2023</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Olga Menshinina</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>olgamenshinina</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>11.09.2023</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>5.970833333333333</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Алексей</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>AlexxxNik82</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>15.09.2023</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D21" s="2" t="n">
         <v>9.074984781504631</v>
       </c>
     </row>

--- a/585896156.xlsx
+++ b/585896156.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.09.2023 - 16.09.2023</t>
+          <t>Весь период</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.5 ч.</t>
+          <t>6.0 ч.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7 дн, 12 ч, 32 м. ч.</t>
+          <t>6 дн, 0 ч, 21 м. ч.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0 дн, 11 ч, 49 м.)</t>
+          <t>5 дн, 15 ч, 30 м.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -651,86 +651,170 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Екатерина Коноплянникова</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EKonoplyannikova</t>
-        </is>
-      </c>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15.09.2023</t>
+          <t>03.09.2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Olga Menshinina</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>olgamenshinina</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>05.09.2023</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Имя</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Username</t>
+          <t>AlexxxNik82</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Дата отписки</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Время нахождения в канале</t>
-        </is>
-      </c>
+          <t>06.09.2023</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Olga Menshinina</t>
+          <t>TestJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>olgamenshinina</t>
+          <t>TesterJul</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11.09.2023</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>5.970833333333333</v>
-      </c>
+          <t>06.09.2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Екатерина Коноплянникова</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EKonoplyannikova</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Дата отписки</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Время нахождения в канале</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>06.09.2023</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Olga Menshinina</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>olgamenshinina</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>5.970833333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Алексей</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>AlexxxNik82</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>15.09.2023</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D26" s="2" t="n">
         <v>9.074984781504631</v>
       </c>
     </row>

--- a/585896156.xlsx
+++ b/585896156.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -533,7 +533,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Вступило с учетом отписок только тех кто вступил</t>
+          <t>Вступило новых за вычетом отписок</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -614,7 +614,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5 дн, 15 ч, 30 м.)</t>
+          <t>6 дн, 5 ч, 43 м.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -818,6 +818,28 @@
         <v>9.074984781504631</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ivanovo4ka</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/585896156.xlsx
+++ b/585896156.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>66.67</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.0 ч.</t>
+          <t>3.0 ч.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6 дн, 0 ч, 21 м. ч.</t>
+          <t>4 дн, 11 ч, 39 м. ч.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6 дн, 5 ч, 43 м.)</t>
+          <t>2 дн, 2 ч, 38 м.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -683,17 +683,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Екатерина Коноплянникова</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AlexxxNik82</t>
+          <t>EKonoplyannikova</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.09.2023</t>
+          <t>15.09.2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -701,17 +701,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TestJ</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TesterJul</t>
+          <t>AlexxxNik82</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.09.2023</t>
+          <t>17.09.2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -719,103 +719,105 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Екатерина Коноплянникова</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EKonoplyannikova</t>
-        </is>
-      </c>
+          <t>Mikhail</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15.09.2023</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://t.me/+cmT73rFq...</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Екатерина Отовчиц</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EkaterinaOtovchits</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://t.me/+e6KLOyBy...</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Дата отписки</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Время нахождения в канале</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alla</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.09.2023</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
+          <t>Дата отписки</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Время нахождения в канале</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Olga Menshinina</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>olgamenshinina</t>
-        </is>
-      </c>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11.09.2023</t>
+          <t>06.09.2023</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>5.970833333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Olga Menshinina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AlexxxNik82</t>
+          <t>olgamenshinina</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15.09.2023</t>
+          <t>11.09.2023</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>9.074984781504631</v>
+        <v>5.970833333333333</v>
       </c>
     </row>
     <row r="27">
@@ -831,13 +833,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>17.09.2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>неизвестно</t>
         </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mikhail</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.03926125471064815</v>
       </c>
     </row>
   </sheetData>
